--- a/Assignments.xlsx
+++ b/Assignments.xlsx
@@ -13,7 +13,19 @@
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.0" hidden="1">Лист2!$A$34:$A$38</definedName>
+    <definedName name="_xlchart.1" hidden="1">Лист2!$B$33</definedName>
+    <definedName name="_xlchart.2" hidden="1">Лист2!$B$34:$B$38</definedName>
+    <definedName name="_xlchart.3" hidden="1">Лист2!$A$34:$A$38</definedName>
+    <definedName name="_xlchart.4" hidden="1">Лист2!$B$33</definedName>
+    <definedName name="_xlchart.5" hidden="1">Лист2!$B$34:$B$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$B$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Лист3!$B$1:$G$14</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -23,12 +35,297 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="73">
+  <si>
+    <t>WholeN</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>ProductName</t>
+  </si>
+  <si>
+    <t>ProductID</t>
+  </si>
+  <si>
+    <t>Wdate</t>
+  </si>
+  <si>
+    <t>MONDAY</t>
+  </si>
+  <si>
+    <t>TUESDAY</t>
+  </si>
+  <si>
+    <t>WEDNESDAY</t>
+  </si>
+  <si>
+    <t>THURSDAY</t>
+  </si>
+  <si>
+    <t>FRIDAY</t>
+  </si>
+  <si>
+    <t>SATURDAY</t>
+  </si>
+  <si>
+    <t>SUNDAY</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Hardworking</t>
+  </si>
+  <si>
+    <t>Friendly</t>
+  </si>
+  <si>
+    <t>Punctual</t>
+  </si>
+  <si>
+    <t>Effective</t>
+  </si>
+  <si>
+    <t>Jabbor</t>
+  </si>
+  <si>
+    <t>Matkarim</t>
+  </si>
+  <si>
+    <t>Anvar</t>
+  </si>
+  <si>
+    <t>Qodir</t>
+  </si>
+  <si>
+    <t>Salim</t>
+  </si>
+  <si>
+    <t>Abdulla</t>
+  </si>
+  <si>
+    <t>Davron</t>
+  </si>
+  <si>
+    <t>Erali</t>
+  </si>
+  <si>
+    <t>Hudoyor</t>
+  </si>
+  <si>
+    <t>Halil</t>
+  </si>
+  <si>
+    <t>Behruz</t>
+  </si>
+  <si>
+    <t>Hikmat</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>Start Time</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Profit</t>
+  </si>
+  <si>
+    <t>Labor Costs</t>
+  </si>
+  <si>
+    <t>Material Costs</t>
+  </si>
+  <si>
+    <t>Overhead Costs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The profit, revenue and cost breakdown for a year are given below. Summarize this data in a waterfall chart. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use a radar chart to summarize the performance review. </t>
+  </si>
+  <si>
+    <t>A project consists of 5 activties. The start time and duration of each acttivity are given summarize this data in a Gant chart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name </t>
+  </si>
+  <si>
+    <t>Attendance</t>
+  </si>
+  <si>
+    <t>Task 1</t>
+  </si>
+  <si>
+    <t>Task 2</t>
+  </si>
+  <si>
+    <t>Task 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task 4 </t>
+  </si>
+  <si>
+    <t>Task 5</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>Random Dates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day </t>
+  </si>
+  <si>
+    <t>Due Date</t>
+  </si>
+  <si>
+    <t>Ali</t>
+  </si>
+  <si>
+    <t>Vali</t>
+  </si>
+  <si>
+    <t>Guli</t>
+  </si>
+  <si>
+    <t>Nurali</t>
+  </si>
+  <si>
+    <t>Ziyoda</t>
+  </si>
+  <si>
+    <t>Hayrulla</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>xayr</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="6">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _s_o_ʻ_m_-;\-* #,##0.00\ _s_o_ʻ_m_-;_-* &quot;-&quot;??\ _s_o_ʻ_m_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.000\ _s_o_ʻ_m_-;\-* #,##0.000\ _s_o_ʻ_m_-;_-* &quot;-&quot;??\ _s_o_ʻ_m_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0\ _s_o_ʻ_m_-;\-* #,##0\ _s_o_ʻ_m_-;_-* &quot;-&quot;??\ _s_o_ʻ_m_-;_-@_-"/>
+    <numFmt numFmtId="175" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="176" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1E1E1E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="162"/>
@@ -52,17 +349,331 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="175" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Финансовый" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="39">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF7C80"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -72,6 +683,3019 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:radarChart>
+        <c:radarStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hardworking</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист2!$A$4:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jabbor</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Matkarim</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Anvar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Qodir</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Salim</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Abdulla</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Davron</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Erali</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Hudoyor</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Halil</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Behruz</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Hikmat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист2!$B$4:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DC6F-4BE0-B0E0-C64AD21467AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Friendly</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист2!$A$4:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jabbor</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Matkarim</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Anvar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Qodir</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Salim</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Abdulla</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Davron</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Erali</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Hudoyor</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Halil</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Behruz</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Hikmat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист2!$C$4:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DC6F-4BE0-B0E0-C64AD21467AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Punctual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист2!$A$4:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jabbor</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Matkarim</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Anvar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Qodir</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Salim</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Abdulla</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Davron</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Erali</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Hudoyor</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Halil</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Behruz</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Hikmat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист2!$D$4:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DC6F-4BE0-B0E0-C64AD21467AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Effective</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист2!$A$4:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jabbor</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Matkarim</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Anvar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Qodir</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Salim</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Abdulla</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Davron</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Erali</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Hudoyor</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Halil</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Behruz</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Hikmat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист2!$E$4:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DC6F-4BE0-B0E0-C64AD21467AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="411336352"/>
+        <c:axId val="411340616"/>
+      </c:radarChart>
+      <c:catAx>
+        <c:axId val="411336352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="411340616"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="411340616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="411336352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Start Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист2!$A$19:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист2!$B$19:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-583B-4CFC-8C23-A93CB24AD444}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$C$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Duration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист2!$A$19:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист2!$C$19:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-583B-4CFC-8C23-A93CB24AD444}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="645782728"/>
+        <c:axId val="645783384"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="645782728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="645783384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="645783384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="645782728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.0</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.2</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="waterfall" uniqueId="{581140FC-0790-4359-B8F5-21E4343A514A}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.1</cx:f>
+              <cx:v>Amount</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataLabels pos="outEnd">
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:subtotals/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0.5"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="304">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="395">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:bodyPr/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" Requires="cx">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Диаграмма 3"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>Эта диаграмма недоступна в вашей версии Excel.
+Изменение этой фигуры или сохранение книги в другом формате приведет к остаточному повреждению диаграммы.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -337,12 +3961,1139 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>45.4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>43679</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
+        <v>-45</v>
+      </c>
+      <c r="B3" s="1">
+        <v>43682</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="O3" s="5"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>14.5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>43696</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43691</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="E5" s="13"/>
+      <c r="N5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>87</v>
+      </c>
+      <c r="B6" s="1">
+        <v>43685</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="N6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>56</v>
+      </c>
+      <c r="B7" s="1">
+        <v>43689</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="N7" t="s">
+        <v>5</v>
+      </c>
+      <c r="O7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>123</v>
+      </c>
+      <c r="B8" s="1">
+        <v>43694</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="E8" s="13"/>
+      <c r="N8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>78</v>
+      </c>
+      <c r="B9" s="1">
+        <v>43678</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="E9" s="13"/>
+      <c r="O9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>14.78</v>
+      </c>
+      <c r="B10" s="1">
+        <v>43692</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="O10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <conditionalFormatting sqref="A2:A10">
+    <cfRule type="containsText" dxfId="21" priority="8" operator="containsText" text="df">
+      <formula>NOT(ISERROR(SEARCH("df",A2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:D16">
+    <cfRule type="duplicateValues" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:D12">
+    <cfRule type="duplicateValues" dxfId="20" priority="5"/>
+    <cfRule type="uniqueValues" dxfId="19" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:D12">
+    <cfRule type="duplicateValues" dxfId="18" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A10">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="cellIs" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="7">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B10">
+      <formula1>43678</formula1>
+      <formula2>43697</formula2>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" sqref="A2:A10">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N4:N8 C2:C10">
+      <formula1>$N$4:$N$8</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F10">
+      <formula1>$O$4:$O$10</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5">
+      <formula1>"COUNTIF($D2:$D10,$D2:$D10)=1"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3">
+      <formula1>"COUNTIF($D2:$D10)=1"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E10">
+      <formula1>ISTEXT(E1048570)</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.88671875" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <f ca="1">RANDBETWEEN(1,10)</f>
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:E15" ca="1" si="0">RANDBETWEEN(1,10)</f>
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ref="B5:B15" ca="1" si="1">RANDBETWEEN(1,10)</f>
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38">
+        <v>55000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="8.88671875" style="10"/>
+    <col min="11" max="11" width="17.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2" s="12">
+        <f>AVERAGE(C2:G2)</f>
+        <v>3.6</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="1:11" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3" s="12">
+        <f t="shared" ref="H3:H12" si="0">AVERAGE(C3:G3)</f>
+        <v>3.2</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="9"/>
+    </row>
+    <row r="4" spans="1:11" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4" s="12">
+        <f t="shared" si="0"/>
+        <v>3.4</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="1:11" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="1:11" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="12">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="1:11" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7" s="12">
+        <f t="shared" si="0"/>
+        <v>3.2</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="1:11" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8" s="12">
+        <f t="shared" si="0"/>
+        <v>2.6</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="1:11" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" spans="1:11" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="12">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="9"/>
+    </row>
+    <row r="11" spans="1:11" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11" s="12">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="9"/>
+    </row>
+    <row r="12" spans="1:11" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12" s="12">
+        <f t="shared" si="0"/>
+        <v>3.2</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="9"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H21" s="11"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:A12 A14">
+    <cfRule type="duplicateValues" dxfId="4" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:G12 E2:G5">
+    <cfRule type="iconSet" priority="21">
+      <iconSet iconSet="3Symbols">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J12">
+    <cfRule type="cellIs" dxfId="3" priority="20" operator="greaterThan">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C5">
+    <cfRule type="iconSet" priority="16">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P10:P14">
+    <cfRule type="iconSet" priority="15">
+      <iconSet iconSet="3Symbols">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:G1048576">
+    <cfRule type="iconSet" priority="14">
+      <iconSet iconSet="3Symbols">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H12">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3" operator="lessThan">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H12">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>